--- a/New files/DCH Health System/10196613 DCH Regional Medical Center.xlsx
+++ b/New files/DCH Health System/10196613 DCH Regional Medical Center.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5AF4FB-2D15-4B6E-911D-9CC7124953D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7A6351-13C5-4650-B71F-FCEF4F3CC79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A0ED1E9A-B06D-44F0-BD53-1034520AE9D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{BEFE69A0-538A-4D97-850D-388748608061}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
@@ -606,7 +606,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B138DD-68B4-E10B-0480-AEFFA736B199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39531A38-7959-218D-6D80-41ABBD9793E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,14 +957,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988831B3-8387-459F-95FC-4C059BDD1B6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0124106F-64EC-4357-B84D-21F7E2A34EEB}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -972,6 +973,7 @@
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1197,7 +1199,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="16">
-        <v>60.5</v>
+        <v>74</v>
       </c>
       <c r="F23" s="18">
         <v>5620</v>
@@ -1215,7 +1217,7 @@
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21">
-        <v>60.5</v>
+        <v>74</v>
       </c>
       <c r="F24" s="22">
         <v>5620</v>
@@ -1362,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FDFFDD-D2B7-407E-8772-DB659A47B6AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C677111B-294D-425E-AD8F-11D66145A081}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/New files/DCH Health System/10196613 DCH Regional Medical Center.xlsx
+++ b/New files/DCH Health System/10196613 DCH Regional Medical Center.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7A6351-13C5-4650-B71F-FCEF4F3CC79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3B791E-7F87-454E-A944-0D9A6B0A7E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{BEFE69A0-538A-4D97-850D-388748608061}"/>
+    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{8F148851-8F0D-45AC-90A2-42BF589C571B}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -593,20 +593,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39531A38-7959-218D-6D80-41ABBD9793E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763068AB-897D-B442-9194-29DFE89DE007}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0124106F-64EC-4357-B84D-21F7E2A34EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7589BBA-CCD1-43CA-AC64-3C46710EDD58}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -970,9 +970,9 @@
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1364,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C677111B-294D-425E-AD8F-11D66145A081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C9CD3A-E3C1-4191-9385-69FF5E90249A}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1379,7 +1379,7 @@
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>

--- a/New files/DCH Health System/10196613 DCH Regional Medical Center.xlsx
+++ b/New files/DCH Health System/10196613 DCH Regional Medical Center.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3B791E-7F87-454E-A944-0D9A6B0A7E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7E1807-B4AE-4751-94C5-9FF7B8607FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{8F148851-8F0D-45AC-90A2-42BF589C571B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6A5FD582-8636-40A2-AA40-86B9A69F1FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -593,20 +593,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763068AB-897D-B442-9194-29DFE89DE007}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837CFE3F-B05C-3FEF-96B3-52A6C8009C7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7589BBA-CCD1-43CA-AC64-3C46710EDD58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EE329-87C2-4732-A294-3102957AD3CB}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -970,9 +970,9 @@
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1364,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C9CD3A-E3C1-4191-9385-69FF5E90249A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103C7139-6100-4106-B7D4-0FBE060257F8}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1379,7 +1379,7 @@
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>

--- a/New files/DCH Health System/10196613 DCH Regional Medical Center.xlsx
+++ b/New files/DCH Health System/10196613 DCH Regional Medical Center.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7E1807-B4AE-4751-94C5-9FF7B8607FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{638728C2-7DCB-4507-BE72-0DE109ABD73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6A5FD582-8636-40A2-AA40-86B9A69F1FB1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02FD31DE-C8AD-499B-9140-3115772B625C}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -593,20 +593,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837CFE3F-B05C-3FEF-96B3-52A6C8009C7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91AD47C3-0C85-22C3-D266-995055DCF530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EE329-87C2-4732-A294-3102957AD3CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBC2BB9-3C51-42BB-B5D3-8C7865FC0658}">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -965,14 +965,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1364,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103C7139-6100-4106-B7D4-0FBE060257F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213BF871-DE4B-482A-9312-589145EC6699}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1379,7 +1379,7 @@
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
